--- a/utils/Tools/excel/99_tips_提示.xlsx
+++ b/utils/Tools/excel/99_tips_提示.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22335" windowHeight="8730"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>提示信息</t>
-  </si>
-  <si>
-    <t>注意格式：大写下划线分隔</t>
   </si>
   <si>
     <t>name</t>
@@ -1246,12 +1243,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1271,25 +1268,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1299,102 +1302,91 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5">
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
